--- a/experiment_new/distanceExperiment.xlsx
+++ b/experiment_new/distanceExperiment.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CA"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Experiment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -138,7 +146,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -155,20 +163,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strLit>
               <c:ptCount val="5"/>
@@ -239,6 +233,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t> Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Between Two Devices</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -304,7 +358,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t> Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Time Cost of Round Trip</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#0&quot;ms&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -945,15 +1059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1051,6 +1165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1086,6 +1217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1240,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" activeCellId="4" sqref="D1 D9 D16 D23 D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1476,7 @@
         <v>9946.27001953125</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D2:D33" si="1">(C9+C10+C11+C12+C13)/500</f>
+        <f t="shared" ref="D9:D29" si="1">(C9+C10+C11+C12+C13)/500</f>
         <v>108.85838037109374</v>
       </c>
     </row>
